--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>S no.</t>
   </si>
@@ -37,25 +37,13 @@
     <t>Student 2 ID</t>
   </si>
   <si>
-    <t>aqsw</t>
-  </si>
-  <si>
-    <t>ANKIT GURWAN</t>
-  </si>
-  <si>
-    <t>210103016</t>
-  </si>
-  <si>
-    <t>a.gurwan@iitg.ac.in</t>
-  </si>
-  <si>
-    <t>Ankit Kumar</t>
-  </si>
-  <si>
-    <t>210103017</t>
-  </si>
-  <si>
-    <t>a.kumar@iitg.ac.in</t>
+    <t>wwaa</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -436,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -485,19 +473,45 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="80">
   <si>
     <t>S no.</t>
   </si>
@@ -37,13 +37,220 @@
     <t>Student 2 ID</t>
   </si>
   <si>
-    <t>wwaa</t>
+    <t>HSS211</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>GPU accelerated solvers for linear system of equations</t>
+  </si>
+  <si>
+    <t>Design, planning and control of industrial systems</t>
+  </si>
+  <si>
+    <t>Parallel parking problem</t>
+  </si>
+  <si>
+    <t>Digital Twin Modeling for Machinery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Development of Biomimetic underwater robot </t>
+  </si>
+  <si>
+    <t>FGM PZT fabrication and testing</t>
+  </si>
+  <si>
+    <t>Micro-EDM</t>
+  </si>
+  <si>
+    <t>Data driven machine learning models to characterize constitutive relation and estimate failure response</t>
+  </si>
+  <si>
+    <t>FE modelling of prostate gland</t>
+  </si>
+  <si>
+    <t>Design and 3D printing of modular hydroponic wall system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of low cost hydroponic system </t>
+  </si>
+  <si>
+    <t>Design of impact-resistant miniature unmanned aerial vehicle</t>
+  </si>
+  <si>
+    <t>Introduction of AI towards characterizing electro-thermal flow in micro/nano channels</t>
+  </si>
+  <si>
+    <t>Use of AI and ML in Machining Process</t>
+  </si>
+  <si>
+    <t>Intelligent Wearable Hand Exoskeleton</t>
+  </si>
+  <si>
+    <t>Design and Development of a Collaborative Robotic Cell for 3D Printing</t>
+  </si>
+  <si>
+    <t>Compressed Air Energy Storage System</t>
+  </si>
+  <si>
+    <t>Design and development of AI based product</t>
+  </si>
+  <si>
+    <t>Application of ML in additive manufacturing</t>
+  </si>
+  <si>
+    <t>Developing a system for measurement of lake water quality with the help of surface and underwater vessel</t>
+  </si>
+  <si>
+    <t>Design and development of UG lab equipment</t>
+  </si>
+  <si>
+    <t>Design and Development of Humanoid Robot</t>
+  </si>
+  <si>
+    <t>Bamboo based wind turbine blade fabrication and testing</t>
+  </si>
+  <si>
+    <t>Electrochemical deposition</t>
+  </si>
+  <si>
+    <t>Compression characteristics of  functionally graded gyroid and primitive lattice structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prediction of residual fatigue life of underwater submarine </t>
+  </si>
+  <si>
+    <t>Design of innovative educational toys</t>
+  </si>
+  <si>
+    <t>Electricity of Photosynthesis: A Cheap Sustainable Energy Solution</t>
+  </si>
+  <si>
+    <t>Development of Micro Wire EDM setup</t>
+  </si>
+  <si>
+    <t>Development of Digital Twins using AL/ML of Gearbox for Fault Diagnostics</t>
+  </si>
+  <si>
+    <t>CAPP Algorithms for 3D Printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biocomposite Wind Turbine Blades - Design and Analysis </t>
+  </si>
+  <si>
+    <t>Modelling of manufacturing processes using Machine learning</t>
+  </si>
+  <si>
+    <t>Developments of pedagogical gadgets for enhancing the aptitude of students in Mechanical Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and Development of high payload Drones for Defense  applications </t>
+  </si>
+  <si>
+    <t>Knee simulation in ABAQUS</t>
+  </si>
+  <si>
+    <t>Micro-ECM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image based defect classification in 3D printing using machine learning technique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design and analysis of underwater MIG welding nozzle and underwater welding characterization </t>
+  </si>
+  <si>
+    <t>Design of wearable human anti-injury protection gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport of salt water in nanopores: Blue energy generation </t>
+  </si>
+  <si>
+    <t>Development of Digital Twins using AL/ML of Rolling Element Bearings for Cage Stability</t>
+  </si>
+  <si>
+    <t>Development of a economical energy source based 3D Printing process</t>
+  </si>
+  <si>
+    <t>Monitoring of manufacturing process using Deep Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelling of additive manufacturing </t>
+  </si>
+  <si>
+    <t>Design and Development of artificial muscle based lower limb exoskeleton System</t>
+  </si>
+  <si>
+    <t>SAW sensor fabrication and testing</t>
+  </si>
+  <si>
+    <t>Plasma polishing</t>
+  </si>
+  <si>
+    <t>Underwater imaging with ROV</t>
+  </si>
+  <si>
+    <t>Thermo-mechanical analysis of single and multi pass weld joints to predict residual stresses and distortions</t>
+  </si>
+  <si>
+    <t>Design of crash-resistant electric vehicle battery system</t>
+  </si>
+  <si>
+    <t>Minimum quantity lubrication setup</t>
+  </si>
+  <si>
+    <t>Development of hybrid welding process for joining thick section in single pass</t>
+  </si>
+  <si>
+    <t>Magnetorheological finishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light weight Underwater ROV design and testing </t>
+  </si>
+  <si>
+    <t>Fabrication of novel bio-based composites for superior mechanical properties</t>
+  </si>
+  <si>
+    <t>Bamboo plate fabrication and testing</t>
+  </si>
+  <si>
+    <t>Design and 3D printing of lake cleaning machine prototype</t>
+  </si>
+  <si>
+    <t>Design optimization of lightweight 3D-printed structures</t>
+  </si>
+  <si>
+    <t>New project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New </t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>Yd6d</t>
+  </si>
+  <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>ANKIT GURWAN</t>
+  </si>
+  <si>
+    <t>210103016</t>
+  </si>
+  <si>
+    <t>a.gurwan@iitg.ac.in</t>
+  </si>
+  <si>
+    <t>HRISHI INANI</t>
+  </si>
+  <si>
+    <t>210103120</t>
+  </si>
+  <si>
+    <t>i.hrishi@iitg.ac.in</t>
   </si>
 </sst>
 </file>
@@ -424,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -514,6 +721,1670 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>S no.</t>
   </si>
@@ -37,13 +37,25 @@
     <t>Student 2 ID</t>
   </si>
   <si>
-    <t>wwaa</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>ANKIT GURWAN</t>
+  </si>
+  <si>
+    <t>210103016</t>
+  </si>
+  <si>
+    <t>a.gurwan@iitg.ac.in</t>
+  </si>
+  <si>
+    <t>HRISHI INANI</t>
+  </si>
+  <si>
+    <t>210103120</t>
+  </si>
+  <si>
+    <t>i.hrishi@iitg.ac.in</t>
   </si>
 </sst>
 </file>
@@ -424,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -473,45 +485,19 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Controllers/public/student_data.xlsx
+++ b/backend/Controllers/public/student_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S no.</t>
   </si>
@@ -35,27 +35,6 @@
   </si>
   <si>
     <t>Student 2 ID</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ANKIT GURWAN</t>
-  </si>
-  <si>
-    <t>210103016</t>
-  </si>
-  <si>
-    <t>a.gurwan@iitg.ac.in</t>
-  </si>
-  <si>
-    <t>HRISHI INANI</t>
-  </si>
-  <si>
-    <t>210103120</t>
-  </si>
-  <si>
-    <t>i.hrishi@iitg.ac.in</t>
   </si>
 </sst>
 </file>
@@ -436,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -474,32 +453,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
